--- a/Code/Results/Cases/Case_5_111/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_111/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.155387939108323</v>
+        <v>2.079490228807003</v>
       </c>
       <c r="C2">
-        <v>0.9595932758719243</v>
+        <v>0.2879520647793754</v>
       </c>
       <c r="D2">
-        <v>0.02883676128245227</v>
+        <v>0.06996198002805443</v>
       </c>
       <c r="E2">
-        <v>0.01606419613068111</v>
+        <v>0.04325744321655156</v>
       </c>
       <c r="F2">
-        <v>1.939450556163621</v>
+        <v>1.816407904982455</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.997711182794049</v>
+        <v>1.289826817062973</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3883017094857877</v>
+        <v>0.2794815660180774</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.750711353352731</v>
+        <v>1.540167290791132</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.596839877521234</v>
+        <v>1.941351996942331</v>
       </c>
       <c r="C3">
-        <v>0.82637876524484</v>
+        <v>0.2515369355396331</v>
       </c>
       <c r="D3">
-        <v>0.03048844129026662</v>
+        <v>0.07080730756321429</v>
       </c>
       <c r="E3">
-        <v>0.01619126231903634</v>
+        <v>0.04344196918472765</v>
       </c>
       <c r="F3">
-        <v>1.740563232213219</v>
+        <v>1.780395070784337</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.9251310184119106</v>
+        <v>1.281869319482148</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.340144245767533</v>
+        <v>0.2688414106235797</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8018074436608913</v>
+        <v>1.559678060171901</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.259248404859022</v>
+        <v>1.857655497802853</v>
       </c>
       <c r="C4">
-        <v>0.7458113263035102</v>
+        <v>0.2292199559320522</v>
       </c>
       <c r="D4">
-        <v>0.03159334569552286</v>
+        <v>0.07135918046975931</v>
       </c>
       <c r="E4">
-        <v>0.01628203654870486</v>
+        <v>0.04356372321499169</v>
       </c>
       <c r="F4">
-        <v>1.623206331105294</v>
+        <v>1.759561681787176</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.8832358181082824</v>
+        <v>1.277813728639593</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3112228090776057</v>
+        <v>0.2624823816003499</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8348248111768974</v>
+        <v>1.572281759589021</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.122837782511965</v>
+        <v>1.823828780032329</v>
       </c>
       <c r="C5">
-        <v>0.713237455567679</v>
+        <v>0.2201354367023214</v>
       </c>
       <c r="D5">
-        <v>0.03206484843934732</v>
+        <v>0.07159230181238385</v>
       </c>
       <c r="E5">
-        <v>0.01632212318770865</v>
+        <v>0.043615468490799</v>
       </c>
       <c r="F5">
-        <v>1.576455979683629</v>
+        <v>1.751391497944411</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.8667732438525633</v>
+        <v>1.276368864964539</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2995806939542263</v>
+        <v>0.2599345921771175</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8486727417480147</v>
+        <v>1.577574367419821</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.100251842931243</v>
+        <v>1.818228762533977</v>
       </c>
       <c r="C6">
-        <v>0.7078427821205082</v>
+        <v>0.2186275314161605</v>
       </c>
       <c r="D6">
-        <v>0.03214438113586837</v>
+        <v>0.07163150758879766</v>
       </c>
       <c r="E6">
-        <v>0.0163289634520225</v>
+        <v>0.04362418947921443</v>
       </c>
       <c r="F6">
-        <v>1.568754546660472</v>
+        <v>1.750054091567677</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.8640748032681671</v>
+        <v>1.276141470115576</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2976556726252682</v>
+        <v>0.2595141591015278</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8509953604982741</v>
+        <v>1.578462640997952</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.257404259451505</v>
+        <v>1.857198166068258</v>
       </c>
       <c r="C7">
-        <v>0.7453710424404392</v>
+        <v>0.2290974000922574</v>
       </c>
       <c r="D7">
-        <v>0.03159962049502596</v>
+        <v>0.07136229114763992</v>
       </c>
       <c r="E7">
-        <v>0.0162825647771323</v>
+        <v>0.04356441244241127</v>
       </c>
       <c r="F7">
-        <v>1.622571648391983</v>
+        <v>1.759450204382063</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.8830114049730611</v>
+        <v>1.277793402538613</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3110652421765678</v>
+        <v>0.2624478450871948</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8350100032001393</v>
+        <v>1.572352504460358</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.961570287404413</v>
+        <v>2.031626506242048</v>
       </c>
       <c r="C8">
-        <v>0.9133744100817864</v>
+        <v>0.2753869384100653</v>
       </c>
       <c r="D8">
-        <v>0.02938641993423019</v>
+        <v>0.07024661597120385</v>
       </c>
       <c r="E8">
-        <v>0.01610528990000271</v>
+        <v>0.04331931523088395</v>
       </c>
       <c r="F8">
-        <v>1.869808231118029</v>
+        <v>1.803724114545005</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.9720929896493189</v>
+        <v>1.286910138741398</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3715505417916916</v>
+        <v>0.275776584164376</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7679752150816306</v>
+        <v>1.546764843106903</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.394398912703025</v>
+        <v>2.382666600762377</v>
       </c>
       <c r="C9">
-        <v>1.255116753654761</v>
+        <v>0.3665324717064209</v>
       </c>
       <c r="D9">
-        <v>0.0258471555455202</v>
+        <v>0.06832062168484043</v>
       </c>
       <c r="E9">
-        <v>0.01586464262896081</v>
+        <v>0.04290560281572331</v>
       </c>
       <c r="F9">
-        <v>2.398628141963258</v>
+        <v>1.900785110235006</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>1.171034368763785</v>
+        <v>1.311423332185967</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4962651025771123</v>
+        <v>0.303306419313671</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6505846393544914</v>
+        <v>1.501556601929657</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.493682771576403</v>
+        <v>2.646212965969823</v>
       </c>
       <c r="C10">
-        <v>1.517735951838063</v>
+        <v>0.4337833333534036</v>
       </c>
       <c r="D10">
-        <v>0.02386469280794046</v>
+        <v>0.06706697319196309</v>
       </c>
       <c r="E10">
-        <v>0.01576247742647263</v>
+        <v>0.04264223187759963</v>
       </c>
       <c r="F10">
-        <v>2.823764315079046</v>
+        <v>1.978480094564162</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>1.33681997881888</v>
+        <v>1.333547403678651</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5931343556785578</v>
+        <v>0.3243992698671292</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5745126181363247</v>
+        <v>1.471394963443267</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.007782115223733</v>
+        <v>2.767367854810914</v>
       </c>
       <c r="C11">
-        <v>1.640778554911662</v>
+        <v>0.4644530178135824</v>
       </c>
       <c r="D11">
-        <v>0.02313197616040696</v>
+        <v>0.0665320856101701</v>
       </c>
       <c r="E11">
-        <v>0.01573478585029342</v>
+        <v>0.04253118571281789</v>
       </c>
       <c r="F11">
-        <v>3.027678609852416</v>
+        <v>2.015243420357393</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>1.417765000934892</v>
+        <v>1.344520959197794</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6387365545229073</v>
+        <v>0.3341872422334404</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5425352989468948</v>
+        <v>1.458341714217532</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.204853827632064</v>
+        <v>2.813430589062136</v>
       </c>
       <c r="C12">
-        <v>1.687989985872719</v>
+        <v>0.4760788523373662</v>
       </c>
       <c r="D12">
-        <v>0.02288236478051431</v>
+        <v>0.06633466289599355</v>
       </c>
       <c r="E12">
-        <v>0.01572726384178935</v>
+        <v>0.04249039213721018</v>
       </c>
       <c r="F12">
-        <v>3.106657858981407</v>
+        <v>2.029371260761252</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>1.449335202695508</v>
+        <v>1.348808300675643</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6562641800103961</v>
+        <v>0.3379216943103813</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5308458205106277</v>
+        <v>1.45349524417486</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.162297886863655</v>
+        <v>2.803501940289266</v>
       </c>
       <c r="C13">
-        <v>1.677792861665239</v>
+        <v>0.4735744786960936</v>
       </c>
       <c r="D13">
-        <v>0.02293482165795169</v>
+        <v>0.06637695276659983</v>
       </c>
       <c r="E13">
-        <v>0.0157287473105967</v>
+        <v>0.04249912189434069</v>
       </c>
       <c r="F13">
-        <v>3.089565576117366</v>
+        <v>2.026319363222711</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>1.442493010247546</v>
+        <v>1.347879060434593</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6524771036117301</v>
+        <v>0.3371161657774735</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.533343965089891</v>
+        <v>1.454534717163504</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.023945007978227</v>
+        <v>2.771153764761266</v>
       </c>
       <c r="C14">
-        <v>1.644649635605219</v>
+        <v>0.4654092391195945</v>
       </c>
       <c r="D14">
-        <v>0.02311085992361583</v>
+        <v>0.06651574054800946</v>
       </c>
       <c r="E14">
-        <v>0.01573410592851188</v>
+        <v>0.04252780442077331</v>
       </c>
       <c r="F14">
-        <v>3.034139425914731</v>
+        <v>2.016401577414882</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>1.420343131873778</v>
+        <v>1.344871031353108</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6401731326485844</v>
+        <v>0.3344939160823799</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5415649275617653</v>
+        <v>1.457941054858992</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.939523652770902</v>
+        <v>2.751363594034103</v>
       </c>
       <c r="C15">
-        <v>1.624432257215688</v>
+        <v>0.4604093674287242</v>
       </c>
       <c r="D15">
-        <v>0.0232224305760127</v>
+        <v>0.06660142093531718</v>
       </c>
       <c r="E15">
-        <v>0.01573778286740479</v>
+        <v>0.04254553693709218</v>
       </c>
       <c r="F15">
-        <v>3.000426685970922</v>
+        <v>2.010353589485391</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>1.406899209606308</v>
+        <v>1.343045737650556</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6326715586059777</v>
+        <v>0.3328913609314839</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.546656495645955</v>
+        <v>1.460040119857752</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.460398426761856</v>
+        <v>2.638320852910226</v>
       </c>
       <c r="C16">
-        <v>1.509775302896571</v>
+        <v>0.4317806158770736</v>
       </c>
       <c r="D16">
-        <v>0.02391626967776972</v>
+        <v>0.0671026448755363</v>
       </c>
       <c r="E16">
-        <v>0.01576468657296815</v>
+        <v>0.04264966508597157</v>
       </c>
       <c r="F16">
-        <v>2.810670158942997</v>
+        <v>1.976106279781561</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>1.331651405311433</v>
+        <v>1.332848649618413</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5901881968023588</v>
+        <v>0.3237635018909515</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.576658727171484</v>
+        <v>1.472261500037071</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.170315220147643</v>
+        <v>2.569298471939362</v>
       </c>
       <c r="C17">
-        <v>1.440421950492805</v>
+        <v>0.4142380929313276</v>
       </c>
       <c r="D17">
-        <v>0.02438757022507332</v>
+        <v>0.0674192230299191</v>
       </c>
       <c r="E17">
-        <v>0.01578617535054372</v>
+        <v>0.0427157865920873</v>
       </c>
       <c r="F17">
-        <v>2.697120791747437</v>
+        <v>1.955461817716525</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>1.286987500988445</v>
+        <v>1.326826749837608</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5645449657890254</v>
+        <v>0.318213391306486</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.595765109987866</v>
+        <v>1.479930244748985</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.004762167322156</v>
+        <v>2.529717698968966</v>
       </c>
       <c r="C18">
-        <v>1.400861280589766</v>
+        <v>0.4041552884353905</v>
       </c>
       <c r="D18">
-        <v>0.02467432518886525</v>
+        <v>0.06760464051460602</v>
       </c>
       <c r="E18">
-        <v>0.01580028495884767</v>
+        <v>0.04275464287706798</v>
       </c>
       <c r="F18">
-        <v>2.63278335637446</v>
+        <v>1.943721141895651</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>1.261810037063668</v>
+        <v>1.323448621175956</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5499376467360833</v>
+        <v>0.3150392400651043</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6069991542892055</v>
+        <v>1.484403893059394</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.948920577111949</v>
+        <v>2.516336723212646</v>
       </c>
       <c r="C19">
-        <v>1.387520399433811</v>
+        <v>0.4007426340751294</v>
       </c>
       <c r="D19">
-        <v>0.0247740092430071</v>
+        <v>0.06766799053170658</v>
       </c>
       <c r="E19">
-        <v>0.01580535547559325</v>
+        <v>0.04276794072040202</v>
       </c>
       <c r="F19">
-        <v>2.611159925625088</v>
+        <v>1.939768806919034</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>1.253369849188303</v>
+        <v>1.322319496233192</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5450151667094474</v>
+        <v>0.3139676326939025</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6108436367028958</v>
+        <v>1.48592936140831</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.201058475034415</v>
+        <v>2.576633684742205</v>
       </c>
       <c r="C20">
-        <v>1.447769923604199</v>
+        <v>0.4161047742751975</v>
       </c>
       <c r="D20">
-        <v>0.02433575336086591</v>
+        <v>0.06738517783020015</v>
       </c>
       <c r="E20">
-        <v>0.01578370497136294</v>
+        <v>0.04270866248724836</v>
       </c>
       <c r="F20">
-        <v>2.709105906290517</v>
+        <v>1.95764562585768</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>1.291688219771103</v>
+        <v>1.327458933222601</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5672597761855229</v>
+        <v>0.3188023323657774</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5937056089507848</v>
+        <v>1.479107391488306</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.064514378110061</v>
+        <v>2.780650198641524</v>
       </c>
       <c r="C21">
-        <v>1.654366932371261</v>
+        <v>0.4678072385380574</v>
       </c>
       <c r="D21">
-        <v>0.02305836620164214</v>
+        <v>0.0664748357553222</v>
       </c>
       <c r="E21">
-        <v>0.01573244919442729</v>
+        <v>0.04251934556990689</v>
       </c>
       <c r="F21">
-        <v>3.050369464358113</v>
+        <v>2.019309052722775</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>1.426823101674628</v>
+        <v>1.345750973581218</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6437797448471372</v>
+        <v>0.3352633735926105</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.539138479832026</v>
+        <v>1.456937907273073</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.64299915177611</v>
+        <v>2.915060244947938</v>
       </c>
       <c r="C22">
-        <v>1.793051299177876</v>
+        <v>0.5016674892331139</v>
       </c>
       <c r="D22">
-        <v>0.0223879560103839</v>
+        <v>0.06590977970333967</v>
       </c>
       <c r="E22">
-        <v>0.01571638621422045</v>
+        <v>0.04240294265122957</v>
       </c>
       <c r="F22">
-        <v>3.28381419503512</v>
+        <v>2.060813595457461</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>1.520563484532204</v>
+        <v>1.358475205469475</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6953218140967721</v>
+        <v>0.3461847018055124</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.505945685477549</v>
+        <v>1.44301166995583</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.332815799467539</v>
+        <v>2.84322420634885</v>
       </c>
       <c r="C23">
-        <v>1.718659382012675</v>
+        <v>0.4835889814484631</v>
       </c>
       <c r="D23">
-        <v>0.02272939240606675</v>
+        <v>0.06620861213769658</v>
       </c>
       <c r="E23">
-        <v>0.01572326423227466</v>
+        <v>0.04246439961761173</v>
       </c>
       <c r="F23">
-        <v>3.158175885235551</v>
+        <v>2.038550929903124</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>1.469990862297408</v>
+        <v>1.351613265308458</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6676585889874929</v>
+        <v>0.3403407786027657</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5234198606888754</v>
+        <v>1.45039268880555</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.187155678272347</v>
+        <v>2.573317120232048</v>
       </c>
       <c r="C24">
-        <v>1.444446942344143</v>
+        <v>0.4152608395244783</v>
       </c>
       <c r="D24">
-        <v>0.02435913081755103</v>
+        <v>0.06740055903872033</v>
       </c>
       <c r="E24">
-        <v>0.015784816381188</v>
+        <v>0.04271188067154741</v>
       </c>
       <c r="F24">
-        <v>2.703684515214718</v>
+        <v>1.956657927362158</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>1.289561475218605</v>
+        <v>1.327172861741374</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5660319917407435</v>
+        <v>0.3185360201726581</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5946359352155994</v>
+        <v>1.47947920169748</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.999787553542774</v>
+        <v>2.286722651238563</v>
       </c>
       <c r="C25">
-        <v>1.160963312178069</v>
+        <v>0.3418292674201098</v>
       </c>
       <c r="D25">
-        <v>0.02670662598438156</v>
+        <v>0.06881344343145201</v>
       </c>
       <c r="E25">
-        <v>0.01591740454830237</v>
+        <v>0.04301038084987585</v>
       </c>
       <c r="F25">
-        <v>2.249919547036356</v>
+        <v>1.873416736566369</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>1.114155018669237</v>
+        <v>1.304074413376526</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4617270282779486</v>
+        <v>0.2957079857949196</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6806831428085971</v>
+        <v>1.513252251360754</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_111/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_111/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.079490228807003</v>
+        <v>4.155387939108266</v>
       </c>
       <c r="C2">
-        <v>0.2879520647793754</v>
+        <v>0.9595932758717538</v>
       </c>
       <c r="D2">
-        <v>0.06996198002805443</v>
+        <v>0.028836761282232</v>
       </c>
       <c r="E2">
-        <v>0.04325744321655156</v>
+        <v>0.01606419613068066</v>
       </c>
       <c r="F2">
-        <v>1.816407904982455</v>
+        <v>1.939450556163621</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>1.289826817062973</v>
+        <v>0.997711182794049</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2794815660180774</v>
+        <v>0.3883017094857877</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.540167290791132</v>
+        <v>0.7507113533527239</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.941351996942331</v>
+        <v>3.596839877521234</v>
       </c>
       <c r="C3">
-        <v>0.2515369355396331</v>
+        <v>0.8263787652448684</v>
       </c>
       <c r="D3">
-        <v>0.07080730756321429</v>
+        <v>0.03048844129013162</v>
       </c>
       <c r="E3">
-        <v>0.04344196918472765</v>
+        <v>0.01619126231901058</v>
       </c>
       <c r="F3">
-        <v>1.780395070784337</v>
+        <v>1.740563232213219</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>1.281869319482148</v>
+        <v>0.9251310184119106</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2688414106235797</v>
+        <v>0.340144245767604</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.559678060171901</v>
+        <v>0.8018074436608273</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.857655497802853</v>
+        <v>3.259248404859022</v>
       </c>
       <c r="C4">
-        <v>0.2292199559320522</v>
+        <v>0.7458113263033681</v>
       </c>
       <c r="D4">
-        <v>0.07135918046975931</v>
+        <v>0.03159334569538252</v>
       </c>
       <c r="E4">
-        <v>0.04356372321499169</v>
+        <v>0.0162820365486922</v>
       </c>
       <c r="F4">
-        <v>1.759561681787176</v>
+        <v>1.623206331105308</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>1.277813728639593</v>
+        <v>0.8832358181082895</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2624823816003499</v>
+        <v>0.3112228090775062</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.572281759589021</v>
+        <v>0.8348248111768442</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.823828780032329</v>
+        <v>3.122837782512079</v>
       </c>
       <c r="C5">
-        <v>0.2201354367023214</v>
+        <v>0.7132374555676222</v>
       </c>
       <c r="D5">
-        <v>0.07159230181238385</v>
+        <v>0.03206484843928159</v>
       </c>
       <c r="E5">
-        <v>0.043615468490799</v>
+        <v>0.01632212318768334</v>
       </c>
       <c r="F5">
-        <v>1.751391497944411</v>
+        <v>1.576455979683644</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>1.276368864964539</v>
+        <v>0.8667732438525846</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2599345921771175</v>
+        <v>0.2995806939543115</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.577574367419821</v>
+        <v>0.8486727417480253</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.818228762533977</v>
+        <v>3.100251842931357</v>
       </c>
       <c r="C6">
-        <v>0.2186275314161605</v>
+        <v>0.7078427821206503</v>
       </c>
       <c r="D6">
-        <v>0.07163150758879766</v>
+        <v>0.03214438113574936</v>
       </c>
       <c r="E6">
-        <v>0.04362418947921443</v>
+        <v>0.01632896345202273</v>
       </c>
       <c r="F6">
-        <v>1.750054091567677</v>
+        <v>1.568754546660472</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>1.276141470115576</v>
+        <v>0.8640748032681742</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2595141591015278</v>
+        <v>0.2976556726252539</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.578462640997952</v>
+        <v>0.8509953604982705</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.857198166068258</v>
+        <v>3.257404259451562</v>
       </c>
       <c r="C7">
-        <v>0.2290974000922574</v>
+        <v>0.7453710424403255</v>
       </c>
       <c r="D7">
-        <v>0.07136229114763992</v>
+        <v>0.03159962049479681</v>
       </c>
       <c r="E7">
-        <v>0.04356441244241127</v>
+        <v>0.01628256477710721</v>
       </c>
       <c r="F7">
-        <v>1.759450204382063</v>
+        <v>1.62257164839194</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>1.277793402538613</v>
+        <v>0.8830114049730469</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2624478450871948</v>
+        <v>0.3110652421765536</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.572352504460358</v>
+        <v>0.8350100032001251</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.031626506242048</v>
+        <v>3.961570287404186</v>
       </c>
       <c r="C8">
-        <v>0.2753869384100653</v>
+        <v>0.9133744100819854</v>
       </c>
       <c r="D8">
-        <v>0.07024661597120385</v>
+        <v>0.02938641993434388</v>
       </c>
       <c r="E8">
-        <v>0.04331931523088395</v>
+        <v>0.01610528990000004</v>
       </c>
       <c r="F8">
-        <v>1.803724114545005</v>
+        <v>1.869808231118043</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>1.286910138741398</v>
+        <v>0.9720929896493402</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.275776584164376</v>
+        <v>0.3715505417916773</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.546764843106903</v>
+        <v>0.7679752150816235</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.382666600762377</v>
+        <v>5.394398912703025</v>
       </c>
       <c r="C9">
-        <v>0.3665324717064209</v>
+        <v>1.255116753654704</v>
       </c>
       <c r="D9">
-        <v>0.06832062168484043</v>
+        <v>0.02584715554550598</v>
       </c>
       <c r="E9">
-        <v>0.04290560281572331</v>
+        <v>0.0158646426289839</v>
       </c>
       <c r="F9">
-        <v>1.900785110235006</v>
+        <v>2.398628141963243</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>1.311423332185967</v>
+        <v>1.171034368763813</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.303306419313671</v>
+        <v>0.4962651025771549</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.501556601929657</v>
+        <v>0.6505846393544985</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.646212965969823</v>
+        <v>6.493682771576459</v>
       </c>
       <c r="C10">
-        <v>0.4337833333534036</v>
+        <v>1.517735951838347</v>
       </c>
       <c r="D10">
-        <v>0.06706697319196309</v>
+        <v>0.02386469280792269</v>
       </c>
       <c r="E10">
-        <v>0.04264223187759963</v>
+        <v>0.01576247742646686</v>
       </c>
       <c r="F10">
-        <v>1.978480094564162</v>
+        <v>2.823764315079046</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>1.333547403678651</v>
+        <v>1.336819978818866</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3243992698671292</v>
+        <v>0.5931343556785862</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.471394963443267</v>
+        <v>0.574512618136346</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.767367854810914</v>
+        <v>7.00778211522362</v>
       </c>
       <c r="C11">
-        <v>0.4644530178135824</v>
+        <v>1.640778554911719</v>
       </c>
       <c r="D11">
-        <v>0.0665320856101701</v>
+        <v>0.02313197616062723</v>
       </c>
       <c r="E11">
-        <v>0.04253118571281789</v>
+        <v>0.01573478585031785</v>
       </c>
       <c r="F11">
-        <v>2.015243420357393</v>
+        <v>3.027678609852416</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>1.344520959197794</v>
+        <v>1.417765000934907</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3341872422334404</v>
+        <v>0.6387365545229073</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.458341714217532</v>
+        <v>0.5425352989469445</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.813430589062136</v>
+        <v>7.204853827632064</v>
       </c>
       <c r="C12">
-        <v>0.4760788523373662</v>
+        <v>1.687989985873344</v>
       </c>
       <c r="D12">
-        <v>0.06633466289599355</v>
+        <v>0.02288236478053207</v>
       </c>
       <c r="E12">
-        <v>0.04249039213721018</v>
+        <v>0.01572726384185197</v>
       </c>
       <c r="F12">
-        <v>2.029371260761252</v>
+        <v>3.106657858981379</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
-        <v>1.348808300675643</v>
+        <v>1.449335202695494</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3379216943103813</v>
+        <v>0.6562641800102966</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.45349524417486</v>
+        <v>0.5308458205106916</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.803501940289266</v>
+        <v>7.162297886863428</v>
       </c>
       <c r="C13">
-        <v>0.4735744786960936</v>
+        <v>1.677792861665012</v>
       </c>
       <c r="D13">
-        <v>0.06637695276659983</v>
+        <v>0.02293482165772431</v>
       </c>
       <c r="E13">
-        <v>0.04249912189434069</v>
+        <v>0.01572874731056695</v>
       </c>
       <c r="F13">
-        <v>2.026319363222711</v>
+        <v>3.089565576117309</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>1.347879060434593</v>
+        <v>1.442493010247546</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3371161657774735</v>
+        <v>0.6524771036116164</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.454534717163504</v>
+        <v>0.5333439650899265</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.771153764761266</v>
+        <v>7.023945007978227</v>
       </c>
       <c r="C14">
-        <v>0.4654092391195945</v>
+        <v>1.644649635604992</v>
       </c>
       <c r="D14">
-        <v>0.06651574054800946</v>
+        <v>0.02311085992360518</v>
       </c>
       <c r="E14">
-        <v>0.04252780442077331</v>
+        <v>0.0157341059285705</v>
       </c>
       <c r="F14">
-        <v>2.016401577414882</v>
+        <v>3.034139425914731</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>1.344871031353108</v>
+        <v>1.420343131873778</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3344939160823799</v>
+        <v>0.640173132648556</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.457941054858992</v>
+        <v>0.5415649275617085</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.751363594034103</v>
+        <v>6.939523652770959</v>
       </c>
       <c r="C15">
-        <v>0.4604093674287242</v>
+        <v>1.624432257215915</v>
       </c>
       <c r="D15">
-        <v>0.06660142093531718</v>
+        <v>0.02322243057626494</v>
       </c>
       <c r="E15">
-        <v>0.04254553693709218</v>
+        <v>0.01573778286740835</v>
       </c>
       <c r="F15">
-        <v>2.010353589485391</v>
+        <v>3.000426685970922</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>1.343045737650556</v>
+        <v>1.40689920960628</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3328913609314839</v>
+        <v>0.6326715586060487</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.460040119857752</v>
+        <v>0.5466564956460331</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.638320852910226</v>
+        <v>6.460398426761856</v>
       </c>
       <c r="C16">
-        <v>0.4317806158770736</v>
+        <v>1.509775302897197</v>
       </c>
       <c r="D16">
-        <v>0.0671026448755363</v>
+        <v>0.02391626967776617</v>
       </c>
       <c r="E16">
-        <v>0.04264966508597157</v>
+        <v>0.01576468657296548</v>
       </c>
       <c r="F16">
-        <v>1.976106279781561</v>
+        <v>2.810670158943026</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>1.332848649618413</v>
+        <v>1.331651405311419</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3237635018909515</v>
+        <v>0.5901881968024441</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.472261500037071</v>
+        <v>0.5766587271714698</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.569298471939362</v>
+        <v>6.170315220147472</v>
       </c>
       <c r="C17">
-        <v>0.4142380929313276</v>
+        <v>1.440421950492237</v>
       </c>
       <c r="D17">
-        <v>0.0674192230299191</v>
+        <v>0.02438757022507332</v>
       </c>
       <c r="E17">
-        <v>0.0427157865920873</v>
+        <v>0.01578617535054061</v>
       </c>
       <c r="F17">
-        <v>1.955461817716525</v>
+        <v>2.697120791747466</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>1.326826749837608</v>
+        <v>1.286987500988431</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.318213391306486</v>
+        <v>0.5645449657890111</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.479930244748985</v>
+        <v>0.5957651099878589</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.529717698968966</v>
+        <v>6.004762167322042</v>
       </c>
       <c r="C18">
-        <v>0.4041552884353905</v>
+        <v>1.400861280589481</v>
       </c>
       <c r="D18">
-        <v>0.06760464051460602</v>
+        <v>0.02467432518874091</v>
       </c>
       <c r="E18">
-        <v>0.04275464287706798</v>
+        <v>0.01580028495887209</v>
       </c>
       <c r="F18">
-        <v>1.943721141895651</v>
+        <v>2.632783356374489</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>1.323448621175956</v>
+        <v>1.261810037063668</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3150392400651043</v>
+        <v>0.5499376467360833</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.484403893059394</v>
+        <v>0.6069991542891842</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.516336723212646</v>
+        <v>5.948920577111892</v>
       </c>
       <c r="C19">
-        <v>0.4007426340751294</v>
+        <v>1.387520399434095</v>
       </c>
       <c r="D19">
-        <v>0.06766799053170658</v>
+        <v>0.02477400924288986</v>
       </c>
       <c r="E19">
-        <v>0.04276794072040202</v>
+        <v>0.01580535547559236</v>
       </c>
       <c r="F19">
-        <v>1.939768806919034</v>
+        <v>2.611159925625117</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>1.322319496233192</v>
+        <v>1.253369849188303</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3139676326939025</v>
+        <v>0.54501516670949</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.48592936140831</v>
+        <v>0.6108436367028887</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.576633684742205</v>
+        <v>6.201058475034415</v>
       </c>
       <c r="C20">
-        <v>0.4161047742751975</v>
+        <v>1.447769923604199</v>
       </c>
       <c r="D20">
-        <v>0.06738517783020015</v>
+        <v>0.02433575336084459</v>
       </c>
       <c r="E20">
-        <v>0.04270866248724836</v>
+        <v>0.01578370497141535</v>
       </c>
       <c r="F20">
-        <v>1.95764562585768</v>
+        <v>2.709105906290546</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>1.327458933222601</v>
+        <v>1.291688219771103</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3188023323657774</v>
+        <v>0.5672597761854803</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.479107391488306</v>
+        <v>0.5937056089507564</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.780650198641524</v>
+        <v>7.064514378109948</v>
       </c>
       <c r="C21">
-        <v>0.4678072385380574</v>
+        <v>1.654366932370976</v>
       </c>
       <c r="D21">
-        <v>0.0664748357553222</v>
+        <v>0.02305836620153556</v>
       </c>
       <c r="E21">
-        <v>0.04251934556990689</v>
+        <v>0.01573244919442951</v>
       </c>
       <c r="F21">
-        <v>2.019309052722775</v>
+        <v>3.050369464358056</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>1.345750973581218</v>
+        <v>1.426823101674614</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3352633735926105</v>
+        <v>0.6437797448471798</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.456937907273073</v>
+        <v>0.5391384798321113</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.915060244947938</v>
+        <v>7.642999151776337</v>
       </c>
       <c r="C22">
-        <v>0.5016674892331139</v>
+        <v>1.793051299177876</v>
       </c>
       <c r="D22">
-        <v>0.06590977970333967</v>
+        <v>0.022387956010256</v>
       </c>
       <c r="E22">
-        <v>0.04240294265122957</v>
+        <v>0.01571638621421334</v>
       </c>
       <c r="F22">
-        <v>2.060813595457461</v>
+        <v>3.28381419503512</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>1.358475205469475</v>
+        <v>1.520563484532204</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3461847018055124</v>
+        <v>0.6953218140967863</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.44301166995583</v>
+        <v>0.5059456854775348</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.84322420634885</v>
+        <v>7.332815799467539</v>
       </c>
       <c r="C23">
-        <v>0.4835889814484631</v>
+        <v>1.718659382013186</v>
       </c>
       <c r="D23">
-        <v>0.06620861213769658</v>
+        <v>0.02272939240593885</v>
       </c>
       <c r="E23">
-        <v>0.04246439961761173</v>
+        <v>0.01572326423227688</v>
       </c>
       <c r="F23">
-        <v>2.038550929903124</v>
+        <v>3.158175885235551</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>1.351613265308458</v>
+        <v>1.469990862297422</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3403407786027657</v>
+        <v>0.6676585889875497</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.45039268880555</v>
+        <v>0.5234198606888825</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.573317120232048</v>
+        <v>6.187155678272347</v>
       </c>
       <c r="C24">
-        <v>0.4152608395244783</v>
+        <v>1.444446942343461</v>
       </c>
       <c r="D24">
-        <v>0.06740055903872033</v>
+        <v>0.02435913081744445</v>
       </c>
       <c r="E24">
-        <v>0.04271188067154741</v>
+        <v>0.01578481638119111</v>
       </c>
       <c r="F24">
-        <v>1.956657927362158</v>
+        <v>2.70368451521469</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>1.327172861741374</v>
+        <v>1.289561475218576</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3185360201726581</v>
+        <v>0.5660319917408287</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.47947920169748</v>
+        <v>0.5946359352156421</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.286722651238563</v>
+        <v>4.999787553542774</v>
       </c>
       <c r="C25">
-        <v>0.3418292674201098</v>
+        <v>1.160963312177898</v>
       </c>
       <c r="D25">
-        <v>0.06881344343145201</v>
+        <v>0.02670662598447748</v>
       </c>
       <c r="E25">
-        <v>0.04301038084987585</v>
+        <v>0.01591740454832591</v>
       </c>
       <c r="F25">
-        <v>1.873416736566369</v>
+        <v>2.249919547036384</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>1.304074413376526</v>
+        <v>1.114155018669237</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2957079857949196</v>
+        <v>0.4617270282780481</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.513252251360754</v>
+        <v>0.680683142808526</v>
       </c>
       <c r="O25">
         <v>0</v>
